--- a/results/rq8_sonarcloud.xlsx
+++ b/results/rq8_sonarcloud.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkantek\Desktop\muni-priv\fi-dp\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93F1C16-561A-48E0-923A-AFC215412CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF3F33A-9176-479D-A2FE-D4490FF7AAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28020" yWindow="0" windowWidth="23580" windowHeight="21600" xr2:uid="{AFFC3002-199F-4A30-A85D-0628BFE3527A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25725" windowHeight="21600" xr2:uid="{AFFC3002-199F-4A30-A85D-0628BFE3527A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,10 +129,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6294F632-938B-4E65-966F-5F5D24E4E1C0}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,34 +464,34 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2" t="s">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -645,7 +645,7 @@
       <c r="H5">
         <v>234</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>1.6</v>
       </c>
       <c r="J5">
@@ -901,16 +901,16 @@
       </c>
     </row>
     <row r="19" spans="18:19" x14ac:dyDescent="0.25">
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
     </row>
     <row r="20" spans="18:19" x14ac:dyDescent="0.25">
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
     </row>
     <row r="21" spans="18:19" x14ac:dyDescent="0.25">
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
